--- a/biology/Botanique/Dendrophylax/Dendrophylax.xlsx
+++ b/biology/Botanique/Dendrophylax/Dendrophylax.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dendrophylax est un genre de plantes aphylles de la famille des Orchidaceae (les Orchidées), qui comporte quatorze espèces endémiques du golfe du Mexique et des Caraïbes.
 </t>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ces plantes herbacées sont dotées de racines aériennes charnues, tapissées d’un velamen destiné à retenir l'humidité atmosphérique[1]. Les tiges, courtes, portent des feuilles sessiles, à l'aisselle desquelles apparaissent les minces tiges florales. 
-L'inflorescence est un racème comportant entre une et dix fleurs[1]. Pétales et sépales, difficiles à distinguer, ont un port étalé et présentent trois lobes, les deux latéraux étant relativement courts par rapport à celui du centre.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces plantes herbacées sont dotées de racines aériennes charnues, tapissées d’un velamen destiné à retenir l'humidité atmosphérique. Les tiges, courtes, portent des feuilles sessiles, à l'aisselle desquelles apparaissent les minces tiges florales. 
+L'inflorescence est un racème comportant entre une et dix fleurs. Pétales et sépales, difficiles à distinguer, ont un port étalé et présentent trois lobes, les deux latéraux étant relativement courts par rapport à celui du centre.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces du genre sont réparties sur le pourtour du golfe du Mexique, de la Floride aux pays d'Amérique centrale et aux Caraïbes.
-Elles sont toutes épiphytes[1]. 
+Elles sont toutes épiphytes. 
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (17 sept. 2012)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (17 sept. 2012) :
 Dendrophylax alcoa Dod
 Dendrophylax barrettiae Fawc. &amp; Rendle
 Dendrophylax constanzensis (Garay) Nir
@@ -619,7 +637,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de genre Dendrophylax provient du grec *dendron, arbre et *phylax, garder. 
 </t>
